--- a/analisis/historias_usuario/HU-002 Ver Reservas Activas.xlsx
+++ b/analisis/historias_usuario/HU-002 Ver Reservas Activas.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\menus\analisis\historias_usuario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\ratos\casos_de_uso\appp\analisis\historias_usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C228669D-40E9-4017-91DE-9E8CE57FD1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D720A80D-93BD-426D-8FC7-AED014EC6165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="16800" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HISTORIA DE USUARIO" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -25,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,10 +37,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
+    <t>Ver Reservas Activas</t>
+  </si>
+  <si>
     <t>ID HISTORIA DE USUARIO</t>
   </si>
   <si>
-    <t>HU-001</t>
+    <t>HU-002</t>
   </si>
   <si>
     <t>TITULO HISTORIA DE USUARIO</t>
@@ -71,6 +76,15 @@
     <t>PARA</t>
   </si>
   <si>
+    <t>Cliente autenticado</t>
+  </si>
+  <si>
+    <t>Ver mis reservas activas</t>
+  </si>
+  <si>
+    <t>Confirmar que la reserva fue exitosa.</t>
+  </si>
+  <si>
     <t>NO.</t>
   </si>
   <si>
@@ -80,25 +94,13 @@
     <t>CRITERIOS DE ACEPTACIÓN</t>
   </si>
   <si>
+    <t>En caso de no tener ninguna reserva activa, el programa debe mostrar un mensaje "No tienes reservas activas"</t>
+  </si>
+  <si>
     <t>PREGUNTAS GENERALES / COMENTARIOS</t>
   </si>
   <si>
-    <t>Ver Reservas Activas</t>
-  </si>
-  <si>
-    <t>Ver mis reservas activas</t>
-  </si>
-  <si>
-    <t>Confirmar que la reserva fue exitosa.</t>
-  </si>
-  <si>
-    <t>Al seleccionarla, el sistema debe mostrar un listado de las reservas activas del usuario</t>
-  </si>
-  <si>
-    <t>Cliente autenticado</t>
-  </si>
-  <si>
-    <t>En caso de no tener ninguna reserva activa, el programa debe mostrar un mensaje "No tienes reservas activas"</t>
+    <t>Al seleccionarla, el sistema debe mostrar un listado de las reservas activas del Cliente</t>
   </si>
 </sst>
 </file>
@@ -138,11 +140,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
     </font>
     <font>
       <sz val="10"/>
@@ -209,6 +206,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -266,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -359,15 +362,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FFBFBFBF"/>
       </right>
@@ -375,19 +369,6 @@
         <color rgb="FFBFBFBF"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFBFBFBF"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,82 +449,84 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -765,9 +748,9 @@
   </sheetPr>
   <dimension ref="A1:Y973"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -783,11 +766,11 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="str">
         <f>"Historia de Usuario "&amp;C3&amp;": "&amp;C5</f>
-        <v>Historia de Usuario HU-001: Ver Reservas Activas</v>
+        <v>Historia de Usuario HU-002: Ver Reservas Activas</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
@@ -815,7 +798,7 @@
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -843,8 +826,8 @@
     <row r="3" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="8" t="s">
-        <v>1</v>
+      <c r="C3" s="26" t="s">
+        <v>2</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -873,16 +856,16 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -904,18 +887,18 @@
     </row>
     <row r="5" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="33" t="s">
-        <v>16</v>
+      <c r="B5" s="9"/>
+      <c r="C5" s="26" t="s">
+        <v>0</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>4</v>
+      <c r="D5" s="26" t="s">
+        <v>5</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="11" t="s">
-        <v>5</v>
+      <c r="H5" s="29" t="s">
+        <v>6</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -938,13 +921,13 @@
     <row r="6" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="4"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="12" t="s">
-        <v>6</v>
+      <c r="H6" s="30" t="s">
+        <v>7</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -968,14 +951,14 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="13" t="s">
-        <v>4</v>
+      <c r="H7" s="31" t="s">
+        <v>5</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -998,8 +981,8 @@
     <row r="8" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="14" t="s">
-        <v>8</v>
+      <c r="C8" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1027,8 +1010,8 @@
     <row r="9" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1055,13 +1038,13 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1087,14 +1070,14 @@
     <row r="11" spans="1:25" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="34" t="s">
-        <v>20</v>
+      <c r="C11" s="27" t="s">
+        <v>13</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>17</v>
+      <c r="D11" s="11" t="s">
+        <v>14</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>18</v>
+      <c r="E11" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1118,11 +1101,11 @@
       <c r="Y11" s="7"/>
     </row>
     <row r="12" spans="1:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1145,11 +1128,11 @@
       <c r="Y12" s="7"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -1172,11 +1155,11 @@
       <c r="Y13" s="7"/>
     </row>
     <row r="14" spans="1:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -1199,11 +1182,11 @@
       <c r="Y14" s="7"/>
     </row>
     <row r="15" spans="1:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1226,12 +1209,12 @@
       <c r="Y15" s="7"/>
     </row>
     <row r="16" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="20" t="s">
-        <v>12</v>
+      <c r="A16" s="13"/>
+      <c r="B16" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D16" s="39"/>
       <c r="E16" s="40"/>
@@ -1257,13 +1240,13 @@
       <c r="Y16" s="7"/>
     </row>
     <row r="17" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22" t="s">
-        <v>14</v>
+      <c r="A17" s="17"/>
+      <c r="B17" s="32" t="s">
+        <v>18</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -1286,12 +1269,12 @@
       <c r="Y17" s="7"/>
     </row>
     <row r="18" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="20">
         <v>1</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>19</v>
+      <c r="C18" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="37"/>
@@ -1317,12 +1300,12 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="20">
         <v>2</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="37"/>
@@ -1348,8 +1331,8 @@
       <c r="Y19" s="7"/>
     </row>
     <row r="20" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="20">
         <v>3</v>
       </c>
       <c r="C20" s="35"/>
@@ -1377,8 +1360,8 @@
       <c r="Y20" s="7"/>
     </row>
     <row r="21" spans="1:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="20">
         <v>4</v>
       </c>
       <c r="C21" s="35"/>
@@ -1386,7 +1369,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="41"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -1406,11 +1389,11 @@
       <c r="Y21" s="7"/>
     </row>
     <row r="22" spans="1:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -1433,13 +1416,13 @@
       <c r="Y22" s="7"/>
     </row>
     <row r="23" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26" t="s">
-        <v>15</v>
+      <c r="A23" s="13"/>
+      <c r="B23" s="33" t="s">
+        <v>20</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -1462,11 +1445,11 @@
       <c r="Y23" s="7"/>
     </row>
     <row r="24" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -1489,11 +1472,11 @@
       <c r="Y24" s="7"/>
     </row>
     <row r="25" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -1516,11 +1499,11 @@
       <c r="Y25" s="7"/>
     </row>
     <row r="26" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -1543,11 +1526,11 @@
       <c r="Y26" s="7"/>
     </row>
     <row r="27" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -1570,11 +1553,11 @@
       <c r="Y27" s="7"/>
     </row>
     <row r="28" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -1597,11 +1580,11 @@
       <c r="Y28" s="7"/>
     </row>
     <row r="29" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -1624,11 +1607,11 @@
       <c r="Y29" s="7"/>
     </row>
     <row r="30" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -1651,11 +1634,11 @@
       <c r="Y30" s="7"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -1678,11 +1661,11 @@
       <c r="Y31" s="7"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -1705,11 +1688,11 @@
       <c r="Y32" s="7"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -1732,11 +1715,11 @@
       <c r="Y33" s="7"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -1759,11 +1742,11 @@
       <c r="Y34" s="7"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -1786,11 +1769,11 @@
       <c r="Y35" s="7"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -1813,11 +1796,11 @@
       <c r="Y36" s="7"/>
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -1840,11 +1823,11 @@
       <c r="Y37" s="7"/>
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -1867,11 +1850,11 @@
       <c r="Y38" s="7"/>
     </row>
     <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -1894,11 +1877,11 @@
       <c r="Y39" s="7"/>
     </row>
     <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -1921,11 +1904,11 @@
       <c r="Y40" s="7"/>
     </row>
     <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -1948,11 +1931,11 @@
       <c r="Y41" s="7"/>
     </row>
     <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -1975,11 +1958,11 @@
       <c r="Y42" s="7"/>
     </row>
     <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -2002,11 +1985,11 @@
       <c r="Y43" s="7"/>
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -2029,11 +2012,11 @@
       <c r="Y44" s="7"/>
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -2056,11 +2039,11 @@
       <c r="Y45" s="7"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -2083,11 +2066,11 @@
       <c r="Y46" s="7"/>
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -2110,11 +2093,11 @@
       <c r="Y47" s="7"/>
     </row>
     <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -2137,11 +2120,11 @@
       <c r="Y48" s="7"/>
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -2164,11 +2147,11 @@
       <c r="Y49" s="7"/>
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -2191,11 +2174,11 @@
       <c r="Y50" s="7"/>
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -2218,11 +2201,11 @@
       <c r="Y51" s="7"/>
     </row>
     <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -2245,11 +2228,11 @@
       <c r="Y52" s="7"/>
     </row>
     <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -2272,11 +2255,11 @@
       <c r="Y53" s="7"/>
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -2299,11 +2282,11 @@
       <c r="Y54" s="7"/>
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -2326,11 +2309,11 @@
       <c r="Y55" s="7"/>
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -2353,11 +2336,11 @@
       <c r="Y56" s="7"/>
     </row>
     <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
@@ -2380,11 +2363,11 @@
       <c r="Y57" s="7"/>
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
@@ -2407,11 +2390,11 @@
       <c r="Y58" s="7"/>
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -2434,11 +2417,11 @@
       <c r="Y59" s="7"/>
     </row>
     <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
@@ -2461,11 +2444,11 @@
       <c r="Y60" s="7"/>
     </row>
     <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
@@ -2488,11 +2471,11 @@
       <c r="Y61" s="7"/>
     </row>
     <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -2515,11 +2498,11 @@
       <c r="Y62" s="7"/>
     </row>
     <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -2542,11 +2525,11 @@
       <c r="Y63" s="7"/>
     </row>
     <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
@@ -2569,11 +2552,11 @@
       <c r="Y64" s="7"/>
     </row>
     <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
@@ -2596,11 +2579,11 @@
       <c r="Y65" s="7"/>
     </row>
     <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
@@ -2623,11 +2606,11 @@
       <c r="Y66" s="7"/>
     </row>
     <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
@@ -2650,11 +2633,11 @@
       <c r="Y67" s="7"/>
     </row>
     <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -2677,11 +2660,11 @@
       <c r="Y68" s="7"/>
     </row>
     <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
@@ -2704,11 +2687,11 @@
       <c r="Y69" s="7"/>
     </row>
     <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
@@ -2731,11 +2714,11 @@
       <c r="Y70" s="7"/>
     </row>
     <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
@@ -2758,11 +2741,11 @@
       <c r="Y71" s="7"/>
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
@@ -2785,11 +2768,11 @@
       <c r="Y72" s="7"/>
     </row>
     <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
@@ -2812,11 +2795,11 @@
       <c r="Y73" s="7"/>
     </row>
     <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
@@ -2839,11 +2822,11 @@
       <c r="Y74" s="7"/>
     </row>
     <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
@@ -2866,11 +2849,11 @@
       <c r="Y75" s="7"/>
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
@@ -2893,11 +2876,11 @@
       <c r="Y76" s="7"/>
     </row>
     <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="17"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
@@ -2920,11 +2903,11 @@
       <c r="Y77" s="7"/>
     </row>
     <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
@@ -2947,11 +2930,11 @@
       <c r="Y78" s="7"/>
     </row>
     <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
@@ -2974,11 +2957,11 @@
       <c r="Y79" s="7"/>
     </row>
     <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
@@ -3001,11 +2984,11 @@
       <c r="Y80" s="7"/>
     </row>
     <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
@@ -3028,11 +3011,11 @@
       <c r="Y81" s="7"/>
     </row>
     <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
@@ -3055,11 +3038,11 @@
       <c r="Y82" s="7"/>
     </row>
     <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
@@ -3082,11 +3065,11 @@
       <c r="Y83" s="7"/>
     </row>
     <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
@@ -3109,11 +3092,11 @@
       <c r="Y84" s="7"/>
     </row>
     <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
@@ -3136,11 +3119,11 @@
       <c r="Y85" s="7"/>
     </row>
     <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="17"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
@@ -3163,11 +3146,11 @@
       <c r="Y86" s="7"/>
     </row>
     <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="17"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
@@ -3190,11 +3173,11 @@
       <c r="Y87" s="7"/>
     </row>
     <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="17"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
@@ -3217,11 +3200,11 @@
       <c r="Y88" s="7"/>
     </row>
     <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="17"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
@@ -3244,11 +3227,11 @@
       <c r="Y89" s="7"/>
     </row>
     <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
@@ -3271,11 +3254,11 @@
       <c r="Y90" s="7"/>
     </row>
     <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="17"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
@@ -3298,11 +3281,11 @@
       <c r="Y91" s="7"/>
     </row>
     <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="17"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
@@ -3325,11 +3308,11 @@
       <c r="Y92" s="7"/>
     </row>
     <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="17"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
@@ -3352,11 +3335,11 @@
       <c r="Y93" s="7"/>
     </row>
     <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="17"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
@@ -3379,11 +3362,11 @@
       <c r="Y94" s="7"/>
     </row>
     <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
@@ -3406,11 +3389,11 @@
       <c r="Y95" s="7"/>
     </row>
     <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="17"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
@@ -3433,11 +3416,11 @@
       <c r="Y96" s="7"/>
     </row>
     <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="17"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
@@ -3460,11 +3443,11 @@
       <c r="Y97" s="7"/>
     </row>
     <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
@@ -3487,11 +3470,11 @@
       <c r="Y98" s="7"/>
     </row>
     <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="17"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
@@ -3514,11 +3497,11 @@
       <c r="Y99" s="7"/>
     </row>
     <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="17"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
@@ -3541,11 +3524,11 @@
       <c r="Y100" s="7"/>
     </row>
     <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="17"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
@@ -3568,11 +3551,11 @@
       <c r="Y101" s="7"/>
     </row>
     <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="17"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
@@ -3595,11 +3578,11 @@
       <c r="Y102" s="7"/>
     </row>
     <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="17"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
@@ -3622,11 +3605,11 @@
       <c r="Y103" s="7"/>
     </row>
     <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="17"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
+      <c r="A104" s="13"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
@@ -3649,11 +3632,11 @@
       <c r="Y104" s="7"/>
     </row>
     <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="17"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
@@ -3676,11 +3659,11 @@
       <c r="Y105" s="7"/>
     </row>
     <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="17"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
@@ -3703,11 +3686,11 @@
       <c r="Y106" s="7"/>
     </row>
     <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="17"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
@@ -3730,11 +3713,11 @@
       <c r="Y107" s="7"/>
     </row>
     <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="17"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
@@ -3757,11 +3740,11 @@
       <c r="Y108" s="7"/>
     </row>
     <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="17"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
@@ -3784,11 +3767,11 @@
       <c r="Y109" s="7"/>
     </row>
     <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="17"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
@@ -3811,11 +3794,11 @@
       <c r="Y110" s="7"/>
     </row>
     <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="17"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
@@ -3838,11 +3821,11 @@
       <c r="Y111" s="7"/>
     </row>
     <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="17"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
+      <c r="A112" s="13"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
@@ -3865,11 +3848,11 @@
       <c r="Y112" s="7"/>
     </row>
     <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="17"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
@@ -3892,11 +3875,11 @@
       <c r="Y113" s="7"/>
     </row>
     <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="17"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
+      <c r="A114" s="13"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
@@ -3919,11 +3902,11 @@
       <c r="Y114" s="7"/>
     </row>
     <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="17"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="17"/>
+      <c r="A115" s="13"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
@@ -3946,11 +3929,11 @@
       <c r="Y115" s="7"/>
     </row>
     <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="17"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="17"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="17"/>
+      <c r="A116" s="13"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
@@ -3973,11 +3956,11 @@
       <c r="Y116" s="7"/>
     </row>
     <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="17"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="17"/>
+      <c r="A117" s="13"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
@@ -4000,11 +3983,11 @@
       <c r="Y117" s="7"/>
     </row>
     <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="17"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
@@ -4027,11 +4010,11 @@
       <c r="Y118" s="7"/>
     </row>
     <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="17"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
+      <c r="A119" s="13"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
@@ -4054,11 +4037,11 @@
       <c r="Y119" s="7"/>
     </row>
     <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="17"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="17"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="17"/>
+      <c r="A120" s="13"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
@@ -4081,11 +4064,11 @@
       <c r="Y120" s="7"/>
     </row>
     <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="17"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
+      <c r="A121" s="13"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
@@ -4108,11 +4091,11 @@
       <c r="Y121" s="7"/>
     </row>
     <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="17"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
+      <c r="A122" s="13"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
@@ -4135,11 +4118,11 @@
       <c r="Y122" s="7"/>
     </row>
     <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="17"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17"/>
+      <c r="A123" s="13"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
@@ -4162,11 +4145,11 @@
       <c r="Y123" s="7"/>
     </row>
     <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="17"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17"/>
+      <c r="A124" s="13"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
@@ -4189,11 +4172,11 @@
       <c r="Y124" s="7"/>
     </row>
     <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="17"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="17"/>
+      <c r="A125" s="13"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
@@ -4216,11 +4199,11 @@
       <c r="Y125" s="7"/>
     </row>
     <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="17"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
@@ -4243,11 +4226,11 @@
       <c r="Y126" s="7"/>
     </row>
     <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="17"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
+      <c r="A127" s="13"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
@@ -4270,11 +4253,11 @@
       <c r="Y127" s="7"/>
     </row>
     <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="17"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="17"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17"/>
+      <c r="A128" s="13"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
@@ -4297,11 +4280,11 @@
       <c r="Y128" s="7"/>
     </row>
     <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="17"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
+      <c r="A129" s="13"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c r="H129" s="7"/>
@@ -4324,11 +4307,11 @@
       <c r="Y129" s="7"/>
     </row>
     <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="17"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="17"/>
+      <c r="A130" s="13"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
@@ -4351,11 +4334,11 @@
       <c r="Y130" s="7"/>
     </row>
     <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="17"/>
-      <c r="B131" s="17"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="17"/>
+      <c r="A131" s="13"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c r="H131" s="7"/>
@@ -4378,11 +4361,11 @@
       <c r="Y131" s="7"/>
     </row>
     <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="17"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="17"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="17"/>
+      <c r="A132" s="13"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c r="H132" s="7"/>
@@ -4405,11 +4388,11 @@
       <c r="Y132" s="7"/>
     </row>
     <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="17"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="17"/>
-      <c r="D133" s="17"/>
-      <c r="E133" s="17"/>
+      <c r="A133" s="13"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
@@ -4432,11 +4415,11 @@
       <c r="Y133" s="7"/>
     </row>
     <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="17"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="17"/>
+      <c r="A134" s="13"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c r="H134" s="7"/>
@@ -4459,11 +4442,11 @@
       <c r="Y134" s="7"/>
     </row>
     <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="17"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="17"/>
-      <c r="D135" s="17"/>
-      <c r="E135" s="17"/>
+      <c r="A135" s="13"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c r="H135" s="7"/>
@@ -4486,11 +4469,11 @@
       <c r="Y135" s="7"/>
     </row>
     <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="17"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
-      <c r="E136" s="17"/>
+      <c r="A136" s="13"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c r="H136" s="7"/>
@@ -4513,11 +4496,11 @@
       <c r="Y136" s="7"/>
     </row>
     <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="17"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="17"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="17"/>
+      <c r="A137" s="13"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
@@ -4540,11 +4523,11 @@
       <c r="Y137" s="7"/>
     </row>
     <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="17"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="17"/>
+      <c r="A138" s="13"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c r="H138" s="7"/>
@@ -4567,11 +4550,11 @@
       <c r="Y138" s="7"/>
     </row>
     <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="17"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="17"/>
-      <c r="D139" s="17"/>
-      <c r="E139" s="17"/>
+      <c r="A139" s="13"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
@@ -4594,11 +4577,11 @@
       <c r="Y139" s="7"/>
     </row>
     <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="17"/>
-      <c r="B140" s="17"/>
-      <c r="C140" s="17"/>
-      <c r="D140" s="17"/>
-      <c r="E140" s="17"/>
+      <c r="A140" s="13"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
@@ -4621,11 +4604,11 @@
       <c r="Y140" s="7"/>
     </row>
     <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="17"/>
-      <c r="B141" s="17"/>
-      <c r="C141" s="17"/>
-      <c r="D141" s="17"/>
-      <c r="E141" s="17"/>
+      <c r="A141" s="13"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
@@ -4648,11 +4631,11 @@
       <c r="Y141" s="7"/>
     </row>
     <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="17"/>
-      <c r="B142" s="17"/>
-      <c r="C142" s="17"/>
-      <c r="D142" s="17"/>
-      <c r="E142" s="17"/>
+      <c r="A142" s="13"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c r="H142" s="7"/>
@@ -4675,11 +4658,11 @@
       <c r="Y142" s="7"/>
     </row>
     <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="17"/>
-      <c r="B143" s="17"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="17"/>
+      <c r="A143" s="13"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
@@ -4702,11 +4685,11 @@
       <c r="Y143" s="7"/>
     </row>
     <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="17"/>
-      <c r="B144" s="17"/>
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
-      <c r="E144" s="17"/>
+      <c r="A144" s="13"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c r="H144" s="7"/>
@@ -4729,11 +4712,11 @@
       <c r="Y144" s="7"/>
     </row>
     <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="17"/>
-      <c r="B145" s="17"/>
-      <c r="C145" s="17"/>
-      <c r="D145" s="17"/>
-      <c r="E145" s="17"/>
+      <c r="A145" s="13"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
@@ -4756,11 +4739,11 @@
       <c r="Y145" s="7"/>
     </row>
     <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="17"/>
-      <c r="B146" s="17"/>
-      <c r="C146" s="17"/>
-      <c r="D146" s="17"/>
-      <c r="E146" s="17"/>
+      <c r="A146" s="13"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c r="H146" s="7"/>
@@ -4783,11 +4766,11 @@
       <c r="Y146" s="7"/>
     </row>
     <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="17"/>
-      <c r="B147" s="17"/>
-      <c r="C147" s="17"/>
-      <c r="D147" s="17"/>
-      <c r="E147" s="17"/>
+      <c r="A147" s="13"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
@@ -4810,11 +4793,11 @@
       <c r="Y147" s="7"/>
     </row>
     <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="17"/>
-      <c r="B148" s="17"/>
-      <c r="C148" s="17"/>
-      <c r="D148" s="17"/>
-      <c r="E148" s="17"/>
+      <c r="A148" s="13"/>
+      <c r="B148" s="13"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c r="H148" s="7"/>
@@ -4837,11 +4820,11 @@
       <c r="Y148" s="7"/>
     </row>
     <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="17"/>
-      <c r="B149" s="17"/>
-      <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="17"/>
+      <c r="A149" s="13"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c r="H149" s="7"/>
@@ -4864,11 +4847,11 @@
       <c r="Y149" s="7"/>
     </row>
     <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="17"/>
-      <c r="B150" s="17"/>
-      <c r="C150" s="17"/>
-      <c r="D150" s="17"/>
-      <c r="E150" s="17"/>
+      <c r="A150" s="13"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c r="H150" s="7"/>
@@ -4891,11 +4874,11 @@
       <c r="Y150" s="7"/>
     </row>
     <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="17"/>
-      <c r="B151" s="17"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="17"/>
+      <c r="A151" s="13"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c r="H151" s="7"/>
@@ -4918,11 +4901,11 @@
       <c r="Y151" s="7"/>
     </row>
     <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="17"/>
-      <c r="B152" s="17"/>
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
-      <c r="E152" s="17"/>
+      <c r="A152" s="13"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c r="H152" s="7"/>
@@ -4945,11 +4928,11 @@
       <c r="Y152" s="7"/>
     </row>
     <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="17"/>
-      <c r="B153" s="17"/>
-      <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
-      <c r="E153" s="17"/>
+      <c r="A153" s="13"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c r="H153" s="7"/>
@@ -4972,11 +4955,11 @@
       <c r="Y153" s="7"/>
     </row>
     <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="17"/>
-      <c r="B154" s="17"/>
-      <c r="C154" s="17"/>
-      <c r="D154" s="17"/>
-      <c r="E154" s="17"/>
+      <c r="A154" s="13"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
@@ -4999,11 +4982,11 @@
       <c r="Y154" s="7"/>
     </row>
     <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="17"/>
-      <c r="B155" s="17"/>
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
-      <c r="E155" s="17"/>
+      <c r="A155" s="13"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
@@ -5026,11 +5009,11 @@
       <c r="Y155" s="7"/>
     </row>
     <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="17"/>
-      <c r="B156" s="17"/>
-      <c r="C156" s="17"/>
-      <c r="D156" s="17"/>
-      <c r="E156" s="17"/>
+      <c r="A156" s="13"/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
       <c r="H156" s="7"/>
@@ -5053,11 +5036,11 @@
       <c r="Y156" s="7"/>
     </row>
     <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="17"/>
-      <c r="B157" s="17"/>
-      <c r="C157" s="17"/>
-      <c r="D157" s="17"/>
-      <c r="E157" s="17"/>
+      <c r="A157" s="13"/>
+      <c r="B157" s="13"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
@@ -5080,11 +5063,11 @@
       <c r="Y157" s="7"/>
     </row>
     <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="17"/>
-      <c r="B158" s="17"/>
-      <c r="C158" s="17"/>
-      <c r="D158" s="17"/>
-      <c r="E158" s="17"/>
+      <c r="A158" s="13"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
       <c r="H158" s="7"/>
@@ -5107,11 +5090,11 @@
       <c r="Y158" s="7"/>
     </row>
     <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="17"/>
-      <c r="B159" s="17"/>
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="17"/>
+      <c r="A159" s="13"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
@@ -5134,11 +5117,11 @@
       <c r="Y159" s="7"/>
     </row>
     <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="17"/>
-      <c r="B160" s="17"/>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="17"/>
+      <c r="A160" s="13"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c r="H160" s="7"/>
@@ -5161,11 +5144,11 @@
       <c r="Y160" s="7"/>
     </row>
     <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="17"/>
-      <c r="B161" s="17"/>
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="17"/>
+      <c r="A161" s="13"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
       <c r="H161" s="7"/>
@@ -5188,11 +5171,11 @@
       <c r="Y161" s="7"/>
     </row>
     <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="17"/>
-      <c r="B162" s="17"/>
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
-      <c r="E162" s="17"/>
+      <c r="A162" s="13"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
       <c r="H162" s="7"/>
@@ -5215,11 +5198,11 @@
       <c r="Y162" s="7"/>
     </row>
     <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="17"/>
-      <c r="B163" s="17"/>
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="17"/>
+      <c r="A163" s="13"/>
+      <c r="B163" s="13"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
@@ -5242,11 +5225,11 @@
       <c r="Y163" s="7"/>
     </row>
     <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="17"/>
-      <c r="B164" s="17"/>
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="17"/>
+      <c r="A164" s="13"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
       <c r="H164" s="7"/>
@@ -5269,11 +5252,11 @@
       <c r="Y164" s="7"/>
     </row>
     <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="17"/>
-      <c r="B165" s="17"/>
-      <c r="C165" s="17"/>
-      <c r="D165" s="17"/>
-      <c r="E165" s="17"/>
+      <c r="A165" s="13"/>
+      <c r="B165" s="13"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
@@ -5296,11 +5279,11 @@
       <c r="Y165" s="7"/>
     </row>
     <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="17"/>
-      <c r="B166" s="17"/>
-      <c r="C166" s="17"/>
-      <c r="D166" s="17"/>
-      <c r="E166" s="17"/>
+      <c r="A166" s="13"/>
+      <c r="B166" s="13"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
@@ -5323,11 +5306,11 @@
       <c r="Y166" s="7"/>
     </row>
     <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="17"/>
-      <c r="B167" s="17"/>
-      <c r="C167" s="17"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="17"/>
+      <c r="A167" s="13"/>
+      <c r="B167" s="13"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="13"/>
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
@@ -5350,11 +5333,11 @@
       <c r="Y167" s="7"/>
     </row>
     <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="17"/>
-      <c r="B168" s="17"/>
-      <c r="C168" s="17"/>
-      <c r="D168" s="17"/>
-      <c r="E168" s="17"/>
+      <c r="A168" s="13"/>
+      <c r="B168" s="13"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
       <c r="H168" s="7"/>
@@ -5377,11 +5360,11 @@
       <c r="Y168" s="7"/>
     </row>
     <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="17"/>
-      <c r="B169" s="17"/>
-      <c r="C169" s="17"/>
-      <c r="D169" s="17"/>
-      <c r="E169" s="17"/>
+      <c r="A169" s="13"/>
+      <c r="B169" s="13"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
       <c r="H169" s="7"/>
@@ -5404,11 +5387,11 @@
       <c r="Y169" s="7"/>
     </row>
     <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="17"/>
-      <c r="B170" s="17"/>
-      <c r="C170" s="17"/>
-      <c r="D170" s="17"/>
-      <c r="E170" s="17"/>
+      <c r="A170" s="13"/>
+      <c r="B170" s="13"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="13"/>
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
       <c r="H170" s="7"/>
@@ -5431,11 +5414,11 @@
       <c r="Y170" s="7"/>
     </row>
     <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="17"/>
-      <c r="B171" s="17"/>
-      <c r="C171" s="17"/>
-      <c r="D171" s="17"/>
-      <c r="E171" s="17"/>
+      <c r="A171" s="13"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
       <c r="H171" s="7"/>
@@ -5458,11 +5441,11 @@
       <c r="Y171" s="7"/>
     </row>
     <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="17"/>
-      <c r="B172" s="17"/>
-      <c r="C172" s="17"/>
-      <c r="D172" s="17"/>
-      <c r="E172" s="17"/>
+      <c r="A172" s="13"/>
+      <c r="B172" s="13"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
       <c r="H172" s="7"/>
@@ -5485,11 +5468,11 @@
       <c r="Y172" s="7"/>
     </row>
     <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="17"/>
-      <c r="B173" s="17"/>
-      <c r="C173" s="17"/>
-      <c r="D173" s="17"/>
-      <c r="E173" s="17"/>
+      <c r="A173" s="13"/>
+      <c r="B173" s="13"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
       <c r="F173" s="7"/>
       <c r="G173" s="7"/>
       <c r="H173" s="7"/>
@@ -5512,11 +5495,11 @@
       <c r="Y173" s="7"/>
     </row>
     <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="17"/>
-      <c r="B174" s="17"/>
-      <c r="C174" s="17"/>
-      <c r="D174" s="17"/>
-      <c r="E174" s="17"/>
+      <c r="A174" s="13"/>
+      <c r="B174" s="13"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
       <c r="H174" s="7"/>
@@ -5539,11 +5522,11 @@
       <c r="Y174" s="7"/>
     </row>
     <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="17"/>
-      <c r="B175" s="17"/>
-      <c r="C175" s="17"/>
-      <c r="D175" s="17"/>
-      <c r="E175" s="17"/>
+      <c r="A175" s="13"/>
+      <c r="B175" s="13"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="13"/>
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
       <c r="H175" s="7"/>
@@ -5566,11 +5549,11 @@
       <c r="Y175" s="7"/>
     </row>
     <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="17"/>
-      <c r="B176" s="17"/>
-      <c r="C176" s="17"/>
-      <c r="D176" s="17"/>
-      <c r="E176" s="17"/>
+      <c r="A176" s="13"/>
+      <c r="B176" s="13"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
       <c r="H176" s="7"/>
@@ -5593,11 +5576,11 @@
       <c r="Y176" s="7"/>
     </row>
     <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="17"/>
-      <c r="B177" s="17"/>
-      <c r="C177" s="17"/>
-      <c r="D177" s="17"/>
-      <c r="E177" s="17"/>
+      <c r="A177" s="13"/>
+      <c r="B177" s="13"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
       <c r="H177" s="7"/>
@@ -5620,11 +5603,11 @@
       <c r="Y177" s="7"/>
     </row>
     <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="17"/>
-      <c r="B178" s="17"/>
-      <c r="C178" s="17"/>
-      <c r="D178" s="17"/>
-      <c r="E178" s="17"/>
+      <c r="A178" s="13"/>
+      <c r="B178" s="13"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="13"/>
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
       <c r="H178" s="7"/>
@@ -5647,11 +5630,11 @@
       <c r="Y178" s="7"/>
     </row>
     <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="17"/>
-      <c r="B179" s="17"/>
-      <c r="C179" s="17"/>
-      <c r="D179" s="17"/>
-      <c r="E179" s="17"/>
+      <c r="A179" s="13"/>
+      <c r="B179" s="13"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="13"/>
       <c r="F179" s="7"/>
       <c r="G179" s="7"/>
       <c r="H179" s="7"/>
@@ -5674,11 +5657,11 @@
       <c r="Y179" s="7"/>
     </row>
     <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="17"/>
-      <c r="B180" s="17"/>
-      <c r="C180" s="17"/>
-      <c r="D180" s="17"/>
-      <c r="E180" s="17"/>
+      <c r="A180" s="13"/>
+      <c r="B180" s="13"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="13"/>
       <c r="F180" s="7"/>
       <c r="G180" s="7"/>
       <c r="H180" s="7"/>
@@ -5701,11 +5684,11 @@
       <c r="Y180" s="7"/>
     </row>
     <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="17"/>
-      <c r="B181" s="17"/>
-      <c r="C181" s="17"/>
-      <c r="D181" s="17"/>
-      <c r="E181" s="17"/>
+      <c r="A181" s="13"/>
+      <c r="B181" s="13"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="13"/>
       <c r="F181" s="7"/>
       <c r="G181" s="7"/>
       <c r="H181" s="7"/>
@@ -5728,11 +5711,11 @@
       <c r="Y181" s="7"/>
     </row>
     <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="17"/>
-      <c r="B182" s="17"/>
-      <c r="C182" s="17"/>
-      <c r="D182" s="17"/>
-      <c r="E182" s="17"/>
+      <c r="A182" s="13"/>
+      <c r="B182" s="13"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="13"/>
       <c r="F182" s="7"/>
       <c r="G182" s="7"/>
       <c r="H182" s="7"/>
@@ -5755,11 +5738,11 @@
       <c r="Y182" s="7"/>
     </row>
     <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="17"/>
-      <c r="B183" s="17"/>
-      <c r="C183" s="17"/>
-      <c r="D183" s="17"/>
-      <c r="E183" s="17"/>
+      <c r="A183" s="13"/>
+      <c r="B183" s="13"/>
+      <c r="C183" s="13"/>
+      <c r="D183" s="13"/>
+      <c r="E183" s="13"/>
       <c r="F183" s="7"/>
       <c r="G183" s="7"/>
       <c r="H183" s="7"/>
@@ -5782,11 +5765,11 @@
       <c r="Y183" s="7"/>
     </row>
     <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="17"/>
-      <c r="B184" s="17"/>
-      <c r="C184" s="17"/>
-      <c r="D184" s="17"/>
-      <c r="E184" s="17"/>
+      <c r="A184" s="13"/>
+      <c r="B184" s="13"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="13"/>
+      <c r="E184" s="13"/>
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
       <c r="H184" s="7"/>
@@ -5809,11 +5792,11 @@
       <c r="Y184" s="7"/>
     </row>
     <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="17"/>
-      <c r="B185" s="17"/>
-      <c r="C185" s="17"/>
-      <c r="D185" s="17"/>
-      <c r="E185" s="17"/>
+      <c r="A185" s="13"/>
+      <c r="B185" s="13"/>
+      <c r="C185" s="13"/>
+      <c r="D185" s="13"/>
+      <c r="E185" s="13"/>
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
       <c r="H185" s="7"/>
@@ -5836,11 +5819,11 @@
       <c r="Y185" s="7"/>
     </row>
     <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="17"/>
-      <c r="B186" s="17"/>
-      <c r="C186" s="17"/>
-      <c r="D186" s="17"/>
-      <c r="E186" s="17"/>
+      <c r="A186" s="13"/>
+      <c r="B186" s="13"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="13"/>
+      <c r="E186" s="13"/>
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
       <c r="H186" s="7"/>
@@ -5863,11 +5846,11 @@
       <c r="Y186" s="7"/>
     </row>
     <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="17"/>
-      <c r="B187" s="17"/>
-      <c r="C187" s="17"/>
-      <c r="D187" s="17"/>
-      <c r="E187" s="17"/>
+      <c r="A187" s="13"/>
+      <c r="B187" s="13"/>
+      <c r="C187" s="13"/>
+      <c r="D187" s="13"/>
+      <c r="E187" s="13"/>
       <c r="F187" s="7"/>
       <c r="G187" s="7"/>
       <c r="H187" s="7"/>
@@ -5890,11 +5873,11 @@
       <c r="Y187" s="7"/>
     </row>
     <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="17"/>
-      <c r="B188" s="17"/>
-      <c r="C188" s="17"/>
-      <c r="D188" s="17"/>
-      <c r="E188" s="17"/>
+      <c r="A188" s="13"/>
+      <c r="B188" s="13"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="13"/>
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
       <c r="H188" s="7"/>
@@ -5917,11 +5900,11 @@
       <c r="Y188" s="7"/>
     </row>
     <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="17"/>
-      <c r="B189" s="17"/>
-      <c r="C189" s="17"/>
-      <c r="D189" s="17"/>
-      <c r="E189" s="17"/>
+      <c r="A189" s="13"/>
+      <c r="B189" s="13"/>
+      <c r="C189" s="13"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="13"/>
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
       <c r="H189" s="7"/>
@@ -5944,11 +5927,11 @@
       <c r="Y189" s="7"/>
     </row>
     <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="17"/>
-      <c r="B190" s="17"/>
-      <c r="C190" s="17"/>
-      <c r="D190" s="17"/>
-      <c r="E190" s="17"/>
+      <c r="A190" s="13"/>
+      <c r="B190" s="13"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="13"/>
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
       <c r="H190" s="7"/>
@@ -5971,11 +5954,11 @@
       <c r="Y190" s="7"/>
     </row>
     <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="17"/>
-      <c r="B191" s="17"/>
-      <c r="C191" s="17"/>
-      <c r="D191" s="17"/>
-      <c r="E191" s="17"/>
+      <c r="A191" s="13"/>
+      <c r="B191" s="13"/>
+      <c r="C191" s="13"/>
+      <c r="D191" s="13"/>
+      <c r="E191" s="13"/>
       <c r="F191" s="7"/>
       <c r="G191" s="7"/>
       <c r="H191" s="7"/>
@@ -5998,11 +5981,11 @@
       <c r="Y191" s="7"/>
     </row>
     <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="17"/>
-      <c r="B192" s="17"/>
-      <c r="C192" s="17"/>
-      <c r="D192" s="17"/>
-      <c r="E192" s="17"/>
+      <c r="A192" s="13"/>
+      <c r="B192" s="13"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="13"/>
       <c r="F192" s="7"/>
       <c r="G192" s="7"/>
       <c r="H192" s="7"/>
@@ -6025,11 +6008,11 @@
       <c r="Y192" s="7"/>
     </row>
     <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="17"/>
-      <c r="B193" s="17"/>
-      <c r="C193" s="17"/>
-      <c r="D193" s="17"/>
-      <c r="E193" s="17"/>
+      <c r="A193" s="13"/>
+      <c r="B193" s="13"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="13"/>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
       <c r="H193" s="7"/>
@@ -6052,11 +6035,11 @@
       <c r="Y193" s="7"/>
     </row>
     <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="17"/>
-      <c r="B194" s="17"/>
-      <c r="C194" s="17"/>
-      <c r="D194" s="17"/>
-      <c r="E194" s="17"/>
+      <c r="A194" s="13"/>
+      <c r="B194" s="13"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="13"/>
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
       <c r="H194" s="7"/>
@@ -6079,11 +6062,11 @@
       <c r="Y194" s="7"/>
     </row>
     <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="17"/>
-      <c r="B195" s="17"/>
-      <c r="C195" s="17"/>
-      <c r="D195" s="17"/>
-      <c r="E195" s="17"/>
+      <c r="A195" s="13"/>
+      <c r="B195" s="13"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="13"/>
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
       <c r="H195" s="7"/>
@@ -6106,11 +6089,11 @@
       <c r="Y195" s="7"/>
     </row>
     <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="17"/>
-      <c r="B196" s="17"/>
-      <c r="C196" s="17"/>
-      <c r="D196" s="17"/>
-      <c r="E196" s="17"/>
+      <c r="A196" s="13"/>
+      <c r="B196" s="13"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="13"/>
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
       <c r="H196" s="7"/>
@@ -6133,11 +6116,11 @@
       <c r="Y196" s="7"/>
     </row>
     <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="17"/>
-      <c r="B197" s="17"/>
-      <c r="C197" s="17"/>
-      <c r="D197" s="17"/>
-      <c r="E197" s="17"/>
+      <c r="A197" s="13"/>
+      <c r="B197" s="13"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="13"/>
+      <c r="E197" s="13"/>
       <c r="F197" s="7"/>
       <c r="G197" s="7"/>
       <c r="H197" s="7"/>
@@ -6160,11 +6143,11 @@
       <c r="Y197" s="7"/>
     </row>
     <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="17"/>
-      <c r="B198" s="17"/>
-      <c r="C198" s="17"/>
-      <c r="D198" s="17"/>
-      <c r="E198" s="17"/>
+      <c r="A198" s="13"/>
+      <c r="B198" s="13"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
       <c r="F198" s="7"/>
       <c r="G198" s="7"/>
       <c r="H198" s="7"/>
@@ -6187,11 +6170,11 @@
       <c r="Y198" s="7"/>
     </row>
     <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="17"/>
-      <c r="B199" s="17"/>
-      <c r="C199" s="17"/>
-      <c r="D199" s="17"/>
-      <c r="E199" s="17"/>
+      <c r="A199" s="13"/>
+      <c r="B199" s="13"/>
+      <c r="C199" s="13"/>
+      <c r="D199" s="13"/>
+      <c r="E199" s="13"/>
       <c r="F199" s="7"/>
       <c r="G199" s="7"/>
       <c r="H199" s="7"/>
@@ -6214,11 +6197,11 @@
       <c r="Y199" s="7"/>
     </row>
     <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="17"/>
-      <c r="B200" s="17"/>
-      <c r="C200" s="17"/>
-      <c r="D200" s="17"/>
-      <c r="E200" s="17"/>
+      <c r="A200" s="13"/>
+      <c r="B200" s="13"/>
+      <c r="C200" s="13"/>
+      <c r="D200" s="13"/>
+      <c r="E200" s="13"/>
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
       <c r="H200" s="7"/>
@@ -6241,11 +6224,11 @@
       <c r="Y200" s="7"/>
     </row>
     <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="17"/>
-      <c r="B201" s="17"/>
-      <c r="C201" s="17"/>
-      <c r="D201" s="17"/>
-      <c r="E201" s="17"/>
+      <c r="A201" s="13"/>
+      <c r="B201" s="13"/>
+      <c r="C201" s="13"/>
+      <c r="D201" s="13"/>
+      <c r="E201" s="13"/>
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
       <c r="H201" s="7"/>
@@ -6268,11 +6251,11 @@
       <c r="Y201" s="7"/>
     </row>
     <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="17"/>
-      <c r="B202" s="17"/>
-      <c r="C202" s="17"/>
-      <c r="D202" s="17"/>
-      <c r="E202" s="17"/>
+      <c r="A202" s="13"/>
+      <c r="B202" s="13"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="13"/>
+      <c r="E202" s="13"/>
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
       <c r="H202" s="7"/>
@@ -6295,11 +6278,11 @@
       <c r="Y202" s="7"/>
     </row>
     <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="17"/>
-      <c r="B203" s="17"/>
-      <c r="C203" s="17"/>
-      <c r="D203" s="17"/>
-      <c r="E203" s="17"/>
+      <c r="A203" s="13"/>
+      <c r="B203" s="13"/>
+      <c r="C203" s="13"/>
+      <c r="D203" s="13"/>
+      <c r="E203" s="13"/>
       <c r="F203" s="7"/>
       <c r="G203" s="7"/>
       <c r="H203" s="7"/>
@@ -6322,11 +6305,11 @@
       <c r="Y203" s="7"/>
     </row>
     <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="17"/>
-      <c r="B204" s="17"/>
-      <c r="C204" s="17"/>
-      <c r="D204" s="17"/>
-      <c r="E204" s="17"/>
+      <c r="A204" s="13"/>
+      <c r="B204" s="13"/>
+      <c r="C204" s="13"/>
+      <c r="D204" s="13"/>
+      <c r="E204" s="13"/>
       <c r="F204" s="7"/>
       <c r="G204" s="7"/>
       <c r="H204" s="7"/>
@@ -6349,11 +6332,11 @@
       <c r="Y204" s="7"/>
     </row>
     <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="17"/>
-      <c r="B205" s="17"/>
-      <c r="C205" s="17"/>
-      <c r="D205" s="17"/>
-      <c r="E205" s="17"/>
+      <c r="A205" s="13"/>
+      <c r="B205" s="13"/>
+      <c r="C205" s="13"/>
+      <c r="D205" s="13"/>
+      <c r="E205" s="13"/>
       <c r="F205" s="7"/>
       <c r="G205" s="7"/>
       <c r="H205" s="7"/>
@@ -6376,11 +6359,11 @@
       <c r="Y205" s="7"/>
     </row>
     <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="17"/>
-      <c r="B206" s="17"/>
-      <c r="C206" s="17"/>
-      <c r="D206" s="17"/>
-      <c r="E206" s="17"/>
+      <c r="A206" s="13"/>
+      <c r="B206" s="13"/>
+      <c r="C206" s="13"/>
+      <c r="D206" s="13"/>
+      <c r="E206" s="13"/>
       <c r="F206" s="7"/>
       <c r="G206" s="7"/>
       <c r="H206" s="7"/>
@@ -6403,11 +6386,11 @@
       <c r="Y206" s="7"/>
     </row>
     <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="17"/>
-      <c r="B207" s="17"/>
-      <c r="C207" s="17"/>
-      <c r="D207" s="17"/>
-      <c r="E207" s="17"/>
+      <c r="A207" s="13"/>
+      <c r="B207" s="13"/>
+      <c r="C207" s="13"/>
+      <c r="D207" s="13"/>
+      <c r="E207" s="13"/>
       <c r="F207" s="7"/>
       <c r="G207" s="7"/>
       <c r="H207" s="7"/>
@@ -6430,11 +6413,11 @@
       <c r="Y207" s="7"/>
     </row>
     <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="17"/>
-      <c r="B208" s="17"/>
-      <c r="C208" s="17"/>
-      <c r="D208" s="17"/>
-      <c r="E208" s="17"/>
+      <c r="A208" s="13"/>
+      <c r="B208" s="13"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="13"/>
+      <c r="E208" s="13"/>
       <c r="F208" s="7"/>
       <c r="G208" s="7"/>
       <c r="H208" s="7"/>
@@ -6457,11 +6440,11 @@
       <c r="Y208" s="7"/>
     </row>
     <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="17"/>
-      <c r="B209" s="17"/>
-      <c r="C209" s="17"/>
-      <c r="D209" s="17"/>
-      <c r="E209" s="17"/>
+      <c r="A209" s="13"/>
+      <c r="B209" s="13"/>
+      <c r="C209" s="13"/>
+      <c r="D209" s="13"/>
+      <c r="E209" s="13"/>
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
       <c r="H209" s="7"/>
@@ -6484,11 +6467,11 @@
       <c r="Y209" s="7"/>
     </row>
     <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="17"/>
-      <c r="B210" s="17"/>
-      <c r="C210" s="17"/>
-      <c r="D210" s="17"/>
-      <c r="E210" s="17"/>
+      <c r="A210" s="13"/>
+      <c r="B210" s="13"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="13"/>
+      <c r="E210" s="13"/>
       <c r="F210" s="7"/>
       <c r="G210" s="7"/>
       <c r="H210" s="7"/>
@@ -6511,11 +6494,11 @@
       <c r="Y210" s="7"/>
     </row>
     <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="17"/>
-      <c r="B211" s="17"/>
-      <c r="C211" s="17"/>
-      <c r="D211" s="17"/>
-      <c r="E211" s="17"/>
+      <c r="A211" s="13"/>
+      <c r="B211" s="13"/>
+      <c r="C211" s="13"/>
+      <c r="D211" s="13"/>
+      <c r="E211" s="13"/>
       <c r="F211" s="7"/>
       <c r="G211" s="7"/>
       <c r="H211" s="7"/>
@@ -6538,11 +6521,11 @@
       <c r="Y211" s="7"/>
     </row>
     <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="17"/>
-      <c r="B212" s="17"/>
-      <c r="C212" s="17"/>
-      <c r="D212" s="17"/>
-      <c r="E212" s="17"/>
+      <c r="A212" s="13"/>
+      <c r="B212" s="13"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="13"/>
+      <c r="E212" s="13"/>
       <c r="F212" s="7"/>
       <c r="G212" s="7"/>
       <c r="H212" s="7"/>
@@ -6565,11 +6548,11 @@
       <c r="Y212" s="7"/>
     </row>
     <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="17"/>
-      <c r="B213" s="17"/>
-      <c r="C213" s="17"/>
-      <c r="D213" s="17"/>
-      <c r="E213" s="17"/>
+      <c r="A213" s="13"/>
+      <c r="B213" s="13"/>
+      <c r="C213" s="13"/>
+      <c r="D213" s="13"/>
+      <c r="E213" s="13"/>
       <c r="F213" s="7"/>
       <c r="G213" s="7"/>
       <c r="H213" s="7"/>
@@ -6592,11 +6575,11 @@
       <c r="Y213" s="7"/>
     </row>
     <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="17"/>
-      <c r="B214" s="17"/>
-      <c r="C214" s="17"/>
-      <c r="D214" s="17"/>
-      <c r="E214" s="17"/>
+      <c r="A214" s="13"/>
+      <c r="B214" s="13"/>
+      <c r="C214" s="13"/>
+      <c r="D214" s="13"/>
+      <c r="E214" s="13"/>
       <c r="F214" s="7"/>
       <c r="G214" s="7"/>
       <c r="H214" s="7"/>
@@ -6619,11 +6602,11 @@
       <c r="Y214" s="7"/>
     </row>
     <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="17"/>
-      <c r="B215" s="17"/>
-      <c r="C215" s="17"/>
-      <c r="D215" s="17"/>
-      <c r="E215" s="17"/>
+      <c r="A215" s="13"/>
+      <c r="B215" s="13"/>
+      <c r="C215" s="13"/>
+      <c r="D215" s="13"/>
+      <c r="E215" s="13"/>
       <c r="F215" s="7"/>
       <c r="G215" s="7"/>
       <c r="H215" s="7"/>
@@ -6646,11 +6629,11 @@
       <c r="Y215" s="7"/>
     </row>
     <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="17"/>
-      <c r="B216" s="17"/>
-      <c r="C216" s="17"/>
-      <c r="D216" s="17"/>
-      <c r="E216" s="17"/>
+      <c r="A216" s="13"/>
+      <c r="B216" s="13"/>
+      <c r="C216" s="13"/>
+      <c r="D216" s="13"/>
+      <c r="E216" s="13"/>
       <c r="F216" s="7"/>
       <c r="G216" s="7"/>
       <c r="H216" s="7"/>
@@ -6673,11 +6656,11 @@
       <c r="Y216" s="7"/>
     </row>
     <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="17"/>
-      <c r="B217" s="17"/>
-      <c r="C217" s="17"/>
-      <c r="D217" s="17"/>
-      <c r="E217" s="17"/>
+      <c r="A217" s="13"/>
+      <c r="B217" s="13"/>
+      <c r="C217" s="13"/>
+      <c r="D217" s="13"/>
+      <c r="E217" s="13"/>
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
       <c r="H217" s="7"/>
@@ -6700,11 +6683,11 @@
       <c r="Y217" s="7"/>
     </row>
     <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="17"/>
-      <c r="B218" s="17"/>
-      <c r="C218" s="17"/>
-      <c r="D218" s="17"/>
-      <c r="E218" s="17"/>
+      <c r="A218" s="13"/>
+      <c r="B218" s="13"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="13"/>
+      <c r="E218" s="13"/>
       <c r="F218" s="7"/>
       <c r="G218" s="7"/>
       <c r="H218" s="7"/>
@@ -6727,11 +6710,11 @@
       <c r="Y218" s="7"/>
     </row>
     <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="17"/>
-      <c r="B219" s="17"/>
-      <c r="C219" s="17"/>
-      <c r="D219" s="17"/>
-      <c r="E219" s="17"/>
+      <c r="A219" s="13"/>
+      <c r="B219" s="13"/>
+      <c r="C219" s="13"/>
+      <c r="D219" s="13"/>
+      <c r="E219" s="13"/>
       <c r="F219" s="7"/>
       <c r="G219" s="7"/>
       <c r="H219" s="7"/>
@@ -6754,11 +6737,11 @@
       <c r="Y219" s="7"/>
     </row>
     <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="17"/>
-      <c r="B220" s="17"/>
-      <c r="C220" s="17"/>
-      <c r="D220" s="17"/>
-      <c r="E220" s="17"/>
+      <c r="A220" s="13"/>
+      <c r="B220" s="13"/>
+      <c r="C220" s="13"/>
+      <c r="D220" s="13"/>
+      <c r="E220" s="13"/>
       <c r="F220" s="7"/>
       <c r="G220" s="7"/>
       <c r="H220" s="7"/>
@@ -6781,11 +6764,11 @@
       <c r="Y220" s="7"/>
     </row>
     <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="17"/>
-      <c r="B221" s="17"/>
-      <c r="C221" s="17"/>
-      <c r="D221" s="17"/>
-      <c r="E221" s="17"/>
+      <c r="A221" s="13"/>
+      <c r="B221" s="13"/>
+      <c r="C221" s="13"/>
+      <c r="D221" s="13"/>
+      <c r="E221" s="13"/>
       <c r="F221" s="7"/>
       <c r="G221" s="7"/>
       <c r="H221" s="7"/>
@@ -6808,11 +6791,11 @@
       <c r="Y221" s="7"/>
     </row>
     <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="17"/>
-      <c r="B222" s="17"/>
-      <c r="C222" s="17"/>
-      <c r="D222" s="17"/>
-      <c r="E222" s="17"/>
+      <c r="A222" s="13"/>
+      <c r="B222" s="13"/>
+      <c r="C222" s="13"/>
+      <c r="D222" s="13"/>
+      <c r="E222" s="13"/>
       <c r="F222" s="7"/>
       <c r="G222" s="7"/>
       <c r="H222" s="7"/>
@@ -6835,11 +6818,11 @@
       <c r="Y222" s="7"/>
     </row>
     <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="17"/>
-      <c r="B223" s="17"/>
-      <c r="C223" s="17"/>
-      <c r="D223" s="17"/>
-      <c r="E223" s="17"/>
+      <c r="A223" s="13"/>
+      <c r="B223" s="13"/>
+      <c r="C223" s="13"/>
+      <c r="D223" s="13"/>
+      <c r="E223" s="13"/>
       <c r="F223" s="7"/>
       <c r="G223" s="7"/>
       <c r="H223" s="7"/>
@@ -6862,11 +6845,11 @@
       <c r="Y223" s="7"/>
     </row>
     <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="17"/>
-      <c r="B224" s="17"/>
-      <c r="C224" s="17"/>
-      <c r="D224" s="17"/>
-      <c r="E224" s="17"/>
+      <c r="A224" s="13"/>
+      <c r="B224" s="13"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="13"/>
+      <c r="E224" s="13"/>
       <c r="F224" s="7"/>
       <c r="G224" s="7"/>
       <c r="H224" s="7"/>
@@ -6889,11 +6872,11 @@
       <c r="Y224" s="7"/>
     </row>
     <row r="225" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="17"/>
-      <c r="B225" s="17"/>
-      <c r="C225" s="17"/>
-      <c r="D225" s="17"/>
-      <c r="E225" s="17"/>
+      <c r="A225" s="13"/>
+      <c r="B225" s="13"/>
+      <c r="C225" s="13"/>
+      <c r="D225" s="13"/>
+      <c r="E225" s="13"/>
       <c r="F225" s="7"/>
       <c r="G225" s="7"/>
       <c r="H225" s="7"/>
@@ -6916,11 +6899,11 @@
       <c r="Y225" s="7"/>
     </row>
     <row r="226" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="17"/>
-      <c r="B226" s="17"/>
-      <c r="C226" s="17"/>
-      <c r="D226" s="17"/>
-      <c r="E226" s="17"/>
+      <c r="A226" s="13"/>
+      <c r="B226" s="13"/>
+      <c r="C226" s="13"/>
+      <c r="D226" s="13"/>
+      <c r="E226" s="13"/>
       <c r="F226" s="7"/>
       <c r="G226" s="7"/>
       <c r="H226" s="7"/>
@@ -6943,11 +6926,11 @@
       <c r="Y226" s="7"/>
     </row>
     <row r="227" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="17"/>
-      <c r="B227" s="17"/>
-      <c r="C227" s="17"/>
-      <c r="D227" s="17"/>
-      <c r="E227" s="17"/>
+      <c r="A227" s="13"/>
+      <c r="B227" s="13"/>
+      <c r="C227" s="13"/>
+      <c r="D227" s="13"/>
+      <c r="E227" s="13"/>
       <c r="F227" s="7"/>
       <c r="G227" s="7"/>
       <c r="H227" s="7"/>
@@ -6970,11 +6953,11 @@
       <c r="Y227" s="7"/>
     </row>
     <row r="228" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="17"/>
-      <c r="B228" s="17"/>
-      <c r="C228" s="17"/>
-      <c r="D228" s="17"/>
-      <c r="E228" s="17"/>
+      <c r="A228" s="13"/>
+      <c r="B228" s="13"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="13"/>
+      <c r="E228" s="13"/>
       <c r="F228" s="7"/>
       <c r="G228" s="7"/>
       <c r="H228" s="7"/>
@@ -6997,11 +6980,11 @@
       <c r="Y228" s="7"/>
     </row>
     <row r="229" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="17"/>
-      <c r="B229" s="17"/>
-      <c r="C229" s="17"/>
-      <c r="D229" s="17"/>
-      <c r="E229" s="17"/>
+      <c r="A229" s="13"/>
+      <c r="B229" s="13"/>
+      <c r="C229" s="13"/>
+      <c r="D229" s="13"/>
+      <c r="E229" s="13"/>
       <c r="F229" s="7"/>
       <c r="G229" s="7"/>
       <c r="H229" s="7"/>
@@ -7024,11 +7007,11 @@
       <c r="Y229" s="7"/>
     </row>
     <row r="230" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="17"/>
-      <c r="B230" s="17"/>
-      <c r="C230" s="17"/>
-      <c r="D230" s="17"/>
-      <c r="E230" s="17"/>
+      <c r="A230" s="13"/>
+      <c r="B230" s="13"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="13"/>
+      <c r="E230" s="13"/>
       <c r="F230" s="7"/>
       <c r="G230" s="7"/>
       <c r="H230" s="7"/>
